--- a/2022/Samsung/MARCH/16.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/16.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="204">
   <si>
     <t>Date</t>
   </si>
@@ -5679,7 +5679,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5689,7 +5689,7 @@
     <col min="3" max="3" width="12.42578125" style="121" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="121" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="121" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="121" customWidth="1"/>
+    <col min="6" max="6" width="29" style="121" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="121" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="121" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="121"/>
@@ -6023,9 +6023,15 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="337"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
+      <c r="B21" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="245">
+        <v>300000</v>
+      </c>
+      <c r="D21" s="245">
+        <v>300000</v>
+      </c>
       <c r="E21" s="246">
         <f>E20+C21-D21</f>
         <v>0</v>
@@ -6746,11 +6752,11 @@
       <c r="B83" s="31"/>
       <c r="C83" s="246">
         <f>SUM(C5:C72)</f>
-        <v>6401220</v>
+        <v>6701220</v>
       </c>
       <c r="D83" s="246">
         <f>SUM(D5:D77)</f>
-        <v>6401220</v>
+        <v>6701220</v>
       </c>
       <c r="E83" s="248">
         <f>E71</f>
@@ -6779,8 +6785,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9936,6 +9942,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9949,12 +9961,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9967,8 +9973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -11848,14 +11854,14 @@
         <v>173740</v>
       </c>
       <c r="C18" s="50">
-        <v>141740</v>
+        <v>151740</v>
       </c>
       <c r="D18" s="47">
         <v>210</v>
       </c>
       <c r="E18" s="47">
         <f t="shared" si="0"/>
-        <v>141950</v>
+        <v>151950</v>
       </c>
       <c r="F18" s="229"/>
       <c r="G18" s="238"/>
@@ -13388,7 +13394,7 @@
       </c>
       <c r="C33" s="250">
         <f>SUM(C5:C32)</f>
-        <v>2736285</v>
+        <v>2746285</v>
       </c>
       <c r="D33" s="249">
         <f>SUM(D5:D32)</f>
@@ -13396,11 +13402,11 @@
       </c>
       <c r="E33" s="249">
         <f>SUM(E5:E32)</f>
-        <v>2769890</v>
+        <v>2779890</v>
       </c>
       <c r="F33" s="249">
         <f>B33-E33</f>
-        <v>1088320</v>
+        <v>1078320</v>
       </c>
       <c r="G33" s="251"/>
       <c r="H33" s="135"/>
@@ -16314,7 +16320,7 @@
       </c>
       <c r="C59" s="116"/>
       <c r="D59" s="206">
-        <v>172840</v>
+        <v>162840</v>
       </c>
       <c r="E59" s="174" t="s">
         <v>198</v>
@@ -22543,7 +22549,7 @@
       <c r="C119" s="357"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>3369020</v>
+        <v>3359020</v>
       </c>
       <c r="E119" s="202"/>
       <c r="F119" s="134"/>
@@ -22752,7 +22758,7 @@
       <c r="C121" s="354"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>3369020</v>
+        <v>3359020</v>
       </c>
       <c r="E121" s="202"/>
       <c r="F121" s="134"/>
@@ -33983,8 +33989,8 @@
   </sheetPr>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34126,7 +34132,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="272">
-        <v>279170</v>
+        <v>289170</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="253"/>
@@ -34191,7 +34197,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="272">
-        <v>3369020</v>
+        <v>3359020</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="232"/>
